--- a/new_batch_complete_deviation.xlsx
+++ b/new_batch_complete_deviation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhuang\OneDrive - Sutro Biopharma\Documents 1\Python_Scripts\Batch_Evolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96162895-A2D4-4289-992A-4FD5B216F109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FCD588-33F0-4293-8982-5E9CE048C46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="4245" windowWidth="28020" windowHeight="14520" xr2:uid="{0310440D-61B7-413C-B7D8-88EB4936DC9F}"/>
+    <workbookView xWindow="-22755" yWindow="2025" windowWidth="21600" windowHeight="11235" xr2:uid="{0310440D-61B7-413C-B7D8-88EB4936DC9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>S1_syn_020</t>
   </si>
   <si>
-    <t>magnesium_mM</t>
+    <t>mg_mM</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
